--- a/dictionaries/urban_ath/1_4/1_4_trimester_rep.xlsx
+++ b/dictionaries/urban_ath/1_4/1_4_trimester_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demetrisavraam/Desktop/GitHub/ds-dictionaries/dictionaries/urban_ath/1_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\git_hub\ds-dictionaries\dictionaries\urban_ath\1_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904FA3F5-2E5C-0C45-A121-79ACE858C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A92D17-A13F-4B06-8E50-21409B9F964D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="495" windowWidth="28800" windowHeight="15945" tabRatio="256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -1118,9 +1118,6 @@
     <t>number of facilities related to supermarket establishments divided by the area of the 800 meters buffer at trimester</t>
   </si>
   <si>
-    <t>urb_deg_</t>
-  </si>
-  <si>
     <t>Urban degree at trimester as classified by GHS-SMOD</t>
   </si>
   <si>
@@ -1146,6 +1143,9 @@
   </si>
   <si>
     <t xml:space="preserve">water </t>
+  </si>
+  <si>
+    <t>urb_deg_t</t>
   </si>
 </sst>
 </file>
@@ -2127,18 +2127,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMH127"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="1"/>
+    <col min="5" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>141</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>181</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>185</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>307</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>308</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>310</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>311</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>312</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>313</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>315</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>316</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>317</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>318</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>319</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>320</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>321</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>322</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>323</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>324</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>325</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>326</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>327</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>328</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>198</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>200</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>204</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="116" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>208</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>210</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>212</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>221</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>226</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>228</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>230</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:1022" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1022" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
@@ -3875,15 +3875,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="127" spans="1:1022" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1022" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
@@ -4923,17 +4923,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D90"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>17</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>17</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>17</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>17</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>17</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>17</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>17</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>17</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>17</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>17</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>17</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>17</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>17</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>17</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>17</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>17</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>17</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>17</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>17</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>163</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>163</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>163</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>165</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>165</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>165</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>165</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>165</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>183</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>183</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>183</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>183</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>183</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>183</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>185</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>185</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>185</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>185</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>185</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>185</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>81</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>83</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>81</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>83</v>
       </c>
@@ -6081,9 +6081,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B83" s="11">
         <v>30</v>
@@ -6092,12 +6092,12 @@
         <v>0</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B84" s="11">
         <v>23</v>
@@ -6106,12 +6106,12 @@
         <v>0</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B85" s="11">
         <v>22</v>
@@ -6120,12 +6120,12 @@
         <v>0</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B86" s="11">
         <v>21</v>
@@ -6134,12 +6134,12 @@
         <v>0</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B87" s="11">
         <v>13</v>
@@ -6148,12 +6148,12 @@
         <v>0</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B88" s="11">
         <v>12</v>
@@ -6162,12 +6162,12 @@
         <v>0</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B89" s="11">
         <v>11</v>
@@ -6176,12 +6176,12 @@
         <v>0</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B90" s="11">
         <v>10</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
